--- a/data/Subset1_WithDialogActs/Math JP1 transcript.xlsx_with_dialog_acts.xlsx
+++ b/data/Subset1_WithDialogActs/Math JP1 transcript.xlsx_with_dialog_acts.xlsx
@@ -933,12 +933,12 @@
       <c r="H12" t="inlineStr"/>
       <c r="I12" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J12" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -1479,12 +1479,12 @@
       <c r="H25" t="inlineStr"/>
       <c r="I25" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J25" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -1521,12 +1521,12 @@
       <c r="H26" t="inlineStr"/>
       <c r="I26" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J26" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -1731,12 +1731,12 @@
       <c r="H31" t="inlineStr"/>
       <c r="I31" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J31" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -2067,12 +2067,12 @@
       <c r="H39" t="inlineStr"/>
       <c r="I39" t="inlineStr">
         <is>
-          <t>qy</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J39" t="inlineStr">
         <is>
-          <t>Yes-No-Question</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -2109,12 +2109,12 @@
       </c>
       <c r="I40" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J40" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -2487,12 +2487,12 @@
       </c>
       <c r="I49" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J49" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -2571,12 +2571,12 @@
       <c r="H51" t="inlineStr"/>
       <c r="I51" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>%</t>
         </is>
       </c>
       <c r="J51" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Uninterpretable</t>
         </is>
       </c>
     </row>
@@ -2947,12 +2947,12 @@
       </c>
       <c r="I60" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J60" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -2989,12 +2989,12 @@
       </c>
       <c r="I61" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J61" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -3323,12 +3323,12 @@
       <c r="H69" t="inlineStr"/>
       <c r="I69" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J69" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -3701,12 +3701,12 @@
       <c r="H78" t="inlineStr"/>
       <c r="I78" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J78" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -3869,12 +3869,12 @@
       <c r="H82" t="inlineStr"/>
       <c r="I82" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J82" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -3953,12 +3953,12 @@
       </c>
       <c r="I84" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>%</t>
         </is>
       </c>
       <c r="J84" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Uninterpretable</t>
         </is>
       </c>
     </row>
@@ -5267,12 +5267,12 @@
       </c>
       <c r="I115" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>%</t>
         </is>
       </c>
       <c r="J115" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Uninterpretable</t>
         </is>
       </c>
     </row>
@@ -5351,12 +5351,12 @@
       </c>
       <c r="I117" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>%</t>
         </is>
       </c>
       <c r="J117" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Uninterpretable</t>
         </is>
       </c>
     </row>
@@ -5939,12 +5939,12 @@
       </c>
       <c r="I131" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J131" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -6023,12 +6023,12 @@
       </c>
       <c r="I133" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J133" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -6569,12 +6569,12 @@
       <c r="H146" t="inlineStr"/>
       <c r="I146" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J146" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -7577,12 +7577,12 @@
       <c r="H170" t="inlineStr"/>
       <c r="I170" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J170" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -9219,12 +9219,12 @@
       <c r="H209" t="inlineStr"/>
       <c r="I209" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J209" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -9429,12 +9429,12 @@
       </c>
       <c r="I214" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J214" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -9555,12 +9555,12 @@
       </c>
       <c r="I217" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>%</t>
         </is>
       </c>
       <c r="J217" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Uninterpretable</t>
         </is>
       </c>
     </row>
@@ -9681,12 +9681,12 @@
       </c>
       <c r="I220" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>%</t>
         </is>
       </c>
       <c r="J220" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Uninterpretable</t>
         </is>
       </c>
     </row>
@@ -9723,12 +9723,12 @@
       <c r="H221" t="inlineStr"/>
       <c r="I221" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J221" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -10983,12 +10983,12 @@
       <c r="H251" t="inlineStr"/>
       <c r="I251" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J251" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -11025,12 +11025,12 @@
       </c>
       <c r="I252" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>%</t>
         </is>
       </c>
       <c r="J252" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Uninterpretable</t>
         </is>
       </c>
     </row>
@@ -11067,12 +11067,12 @@
       <c r="H253" t="inlineStr"/>
       <c r="I253" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J253" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -11151,12 +11151,12 @@
       <c r="H255" t="inlineStr"/>
       <c r="I255" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>%</t>
         </is>
       </c>
       <c r="J255" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Uninterpretable</t>
         </is>
       </c>
     </row>
@@ -11361,12 +11361,12 @@
       </c>
       <c r="I260" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J260" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -11907,12 +11907,12 @@
       </c>
       <c r="I273" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J273" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -12033,12 +12033,12 @@
       </c>
       <c r="I276" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J276" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -12285,12 +12285,12 @@
       <c r="H282" t="inlineStr"/>
       <c r="I282" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>qy</t>
         </is>
       </c>
       <c r="J282" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Yes-No-Question</t>
         </is>
       </c>
     </row>
@@ -12495,12 +12495,12 @@
       </c>
       <c r="I287" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J287" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -12747,12 +12747,12 @@
       <c r="H293" t="inlineStr"/>
       <c r="I293" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J293" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -12835,12 +12835,12 @@
       <c r="H295" t="inlineStr"/>
       <c r="I295" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J295" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -13045,12 +13045,12 @@
       <c r="H300" t="inlineStr"/>
       <c r="I300" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J300" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -13129,12 +13129,12 @@
       </c>
       <c r="I302" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J302" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -13171,12 +13171,12 @@
       <c r="H303" t="inlineStr"/>
       <c r="I303" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J303" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -13595,12 +13595,12 @@
       </c>
       <c r="I313" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J313" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -14267,12 +14267,12 @@
       </c>
       <c r="I329" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J329" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -14519,12 +14519,12 @@
       <c r="H335" t="inlineStr"/>
       <c r="I335" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J335" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -14855,12 +14855,12 @@
       </c>
       <c r="I343" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>%</t>
         </is>
       </c>
       <c r="J343" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Uninterpretable</t>
         </is>
       </c>
     </row>
@@ -14897,12 +14897,12 @@
       </c>
       <c r="I344" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J344" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -15401,12 +15401,12 @@
       </c>
       <c r="I356" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J356" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -15443,12 +15443,12 @@
       </c>
       <c r="I357" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J357" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -15485,12 +15485,12 @@
       </c>
       <c r="I358" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J358" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -15527,12 +15527,12 @@
       </c>
       <c r="I359" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J359" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -15653,12 +15653,12 @@
       </c>
       <c r="I362" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J362" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -15737,12 +15737,12 @@
       <c r="H364" t="inlineStr"/>
       <c r="I364" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J364" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -15821,12 +15821,12 @@
       <c r="H366" t="inlineStr"/>
       <c r="I366" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J366" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -16493,12 +16493,12 @@
       </c>
       <c r="I382" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>qy</t>
         </is>
       </c>
       <c r="J382" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Yes-No-Question</t>
         </is>
       </c>
     </row>
@@ -16577,12 +16577,12 @@
       <c r="H384" t="inlineStr"/>
       <c r="I384" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J384" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -16955,12 +16955,12 @@
       </c>
       <c r="I393" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J393" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -17417,12 +17417,12 @@
       <c r="H404" t="inlineStr"/>
       <c r="I404" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J404" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -17459,12 +17459,12 @@
       <c r="H405" t="inlineStr"/>
       <c r="I405" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>%</t>
         </is>
       </c>
       <c r="J405" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Uninterpretable</t>
         </is>
       </c>
     </row>
@@ -18383,12 +18383,12 @@
       </c>
       <c r="I427" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>%</t>
         </is>
       </c>
       <c r="J427" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Uninterpretable</t>
         </is>
       </c>
     </row>
@@ -18635,12 +18635,12 @@
       <c r="H433" t="inlineStr"/>
       <c r="I433" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J433" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -18887,12 +18887,12 @@
       <c r="H439" t="inlineStr"/>
       <c r="I439" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>%</t>
         </is>
       </c>
       <c r="J439" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Uninterpretable</t>
         </is>
       </c>
     </row>
@@ -19097,12 +19097,12 @@
       </c>
       <c r="I444" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J444" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -19223,12 +19223,12 @@
       <c r="H447" t="inlineStr"/>
       <c r="I447" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J447" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -19265,12 +19265,12 @@
       <c r="H448" t="inlineStr"/>
       <c r="I448" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J448" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -19391,12 +19391,12 @@
       <c r="H451" t="inlineStr"/>
       <c r="I451" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J451" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -19433,12 +19433,12 @@
       <c r="H452" t="inlineStr"/>
       <c r="I452" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J452" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -19517,12 +19517,12 @@
       <c r="H454" t="inlineStr"/>
       <c r="I454" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J454" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -19559,12 +19559,12 @@
       <c r="H455" t="inlineStr"/>
       <c r="I455" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J455" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -19979,12 +19979,12 @@
       <c r="H465" t="inlineStr"/>
       <c r="I465" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J465" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -20483,12 +20483,12 @@
       <c r="H477" t="inlineStr"/>
       <c r="I477" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J477" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -20567,12 +20567,12 @@
       </c>
       <c r="I479" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J479" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -20609,12 +20609,12 @@
       </c>
       <c r="I480" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J480" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -20651,12 +20651,12 @@
       </c>
       <c r="I481" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J481" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -20735,12 +20735,12 @@
       <c r="H483" t="inlineStr"/>
       <c r="I483" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J483" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -20945,12 +20945,12 @@
       <c r="H488" t="inlineStr"/>
       <c r="I488" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J488" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -20987,12 +20987,12 @@
       <c r="H489" t="inlineStr"/>
       <c r="I489" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J489" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -21659,12 +21659,12 @@
       </c>
       <c r="I505" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J505" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -21911,12 +21911,12 @@
       </c>
       <c r="I511" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>%</t>
         </is>
       </c>
       <c r="J511" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Uninterpretable</t>
         </is>
       </c>
     </row>
@@ -21953,12 +21953,12 @@
       <c r="H512" t="inlineStr"/>
       <c r="I512" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J512" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -22205,12 +22205,12 @@
       </c>
       <c r="I518" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>%</t>
         </is>
       </c>
       <c r="J518" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Uninterpretable</t>
         </is>
       </c>
     </row>
@@ -22499,12 +22499,12 @@
       </c>
       <c r="I525" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J525" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -22793,12 +22793,12 @@
       </c>
       <c r="I532" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J532" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -22835,12 +22835,12 @@
       </c>
       <c r="I533" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>%</t>
         </is>
       </c>
       <c r="J533" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Uninterpretable</t>
         </is>
       </c>
     </row>
@@ -23087,12 +23087,12 @@
       <c r="H539" t="inlineStr"/>
       <c r="I539" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J539" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -23423,12 +23423,12 @@
       <c r="H547" t="inlineStr"/>
       <c r="I547" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J547" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -24053,12 +24053,12 @@
       <c r="H562" t="inlineStr"/>
       <c r="I562" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J562" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -24473,12 +24473,12 @@
       <c r="H572" t="inlineStr"/>
       <c r="I572" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J572" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -24515,12 +24515,12 @@
       </c>
       <c r="I573" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J573" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -24557,12 +24557,12 @@
       <c r="H574" t="inlineStr"/>
       <c r="I574" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J574" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -24809,12 +24809,12 @@
       </c>
       <c r="I580" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J580" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -24893,12 +24893,12 @@
       <c r="H582" t="inlineStr"/>
       <c r="I582" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J582" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -25313,12 +25313,12 @@
       <c r="H592" t="inlineStr"/>
       <c r="I592" t="inlineStr">
         <is>
-          <t>ba</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J592" t="inlineStr">
         <is>
-          <t>Appreciation</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -25649,12 +25649,12 @@
       </c>
       <c r="I600" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J600" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -25733,12 +25733,12 @@
       </c>
       <c r="I602" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J602" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -25775,12 +25775,12 @@
       </c>
       <c r="I603" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J603" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -26027,12 +26027,12 @@
       </c>
       <c r="I609" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J609" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -26489,12 +26489,12 @@
       <c r="H620" t="inlineStr"/>
       <c r="I620" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J620" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -26699,12 +26699,12 @@
       <c r="H625" t="inlineStr"/>
       <c r="I625" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J625" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -27035,12 +27035,12 @@
       </c>
       <c r="I633" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J633" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -27119,12 +27119,12 @@
       <c r="H635" t="inlineStr"/>
       <c r="I635" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>%</t>
         </is>
       </c>
       <c r="J635" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Uninterpretable</t>
         </is>
       </c>
     </row>
@@ -27371,12 +27371,12 @@
       <c r="H641" t="inlineStr"/>
       <c r="I641" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J641" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -27413,12 +27413,12 @@
       <c r="H642" t="inlineStr"/>
       <c r="I642" t="inlineStr">
         <is>
-          <t>ba</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J642" t="inlineStr">
         <is>
-          <t>Appreciation</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -27539,12 +27539,12 @@
       <c r="H645" t="inlineStr"/>
       <c r="I645" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J645" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -27623,12 +27623,12 @@
       <c r="H647" t="inlineStr"/>
       <c r="I647" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>%</t>
         </is>
       </c>
       <c r="J647" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Uninterpretable</t>
         </is>
       </c>
     </row>
@@ -28127,12 +28127,12 @@
       <c r="H659" t="inlineStr"/>
       <c r="I659" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J659" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -28505,12 +28505,12 @@
       <c r="H668" t="inlineStr"/>
       <c r="I668" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J668" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -28631,12 +28631,12 @@
       <c r="H671" t="inlineStr"/>
       <c r="I671" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J671" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -28673,12 +28673,12 @@
       <c r="H672" t="inlineStr"/>
       <c r="I672" t="inlineStr">
         <is>
-          <t>ba</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J672" t="inlineStr">
         <is>
-          <t>Appreciation</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -28883,12 +28883,12 @@
       </c>
       <c r="I677" t="inlineStr">
         <is>
-          <t>qy</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J677" t="inlineStr">
         <is>
-          <t>Yes-No-Question</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -29135,12 +29135,12 @@
       <c r="H683" t="inlineStr"/>
       <c r="I683" t="inlineStr">
         <is>
-          <t>qy</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J683" t="inlineStr">
         <is>
-          <t>Yes-No-Question</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -29681,12 +29681,12 @@
       </c>
       <c r="I696" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>%</t>
         </is>
       </c>
       <c r="J696" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Uninterpretable</t>
         </is>
       </c>
     </row>
@@ -29765,12 +29765,12 @@
       <c r="H698" t="inlineStr"/>
       <c r="I698" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>%</t>
         </is>
       </c>
       <c r="J698" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Uninterpretable</t>
         </is>
       </c>
     </row>
@@ -29849,12 +29849,12 @@
       </c>
       <c r="I700" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>%</t>
         </is>
       </c>
       <c r="J700" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Uninterpretable</t>
         </is>
       </c>
     </row>
@@ -30017,12 +30017,12 @@
       <c r="H704" t="inlineStr"/>
       <c r="I704" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J704" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -30143,12 +30143,12 @@
       </c>
       <c r="I707" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>%</t>
         </is>
       </c>
       <c r="J707" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Uninterpretable</t>
         </is>
       </c>
     </row>
@@ -30311,12 +30311,12 @@
       <c r="H711" t="inlineStr"/>
       <c r="I711" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J711" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -30353,12 +30353,12 @@
       </c>
       <c r="I712" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>%</t>
         </is>
       </c>
       <c r="J712" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Uninterpretable</t>
         </is>
       </c>
     </row>
@@ -30395,12 +30395,12 @@
       </c>
       <c r="I713" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J713" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
